--- a/15-Musica/Controle do projeto.xlsx
+++ b/15-Musica/Controle do projeto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD" sheetId="1" r:id="rId1"/>
@@ -440,441 +440,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -1432,8 +998,8 @@
   </sheetPr>
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,42 +1799,42 @@
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J12 F6:G6 F8:G9 B6:D12 F11:G12 F6:F12">
-    <cfRule type="cellIs" dxfId="97" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E8:E9 E11:E12">
-    <cfRule type="cellIs" dxfId="95" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H9 H11:H12">
-    <cfRule type="cellIs" dxfId="93" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I8:I9 I11:I12">
-    <cfRule type="cellIs" dxfId="91" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2281,42 +1847,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2333,8 +1899,8 @@
   </sheetPr>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,7 +2017,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -2480,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2509,7 +2075,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2538,7 +2104,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -2567,7 +2133,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -2596,7 +2162,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -2625,7 +2191,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -2980,10 +2546,10 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:F12">
-    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/15-Musica/Controle do projeto.xlsx
+++ b/15-Musica/Controle do projeto.xlsx
@@ -391,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,95 +436,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -1799,90 +1718,90 @@
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J12 F6:G6 F8:G9 B6:D12 F11:G12 F6:F12">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E8:E9 E11:E12">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H9 H11:H12">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I8:I9 I11:I12">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1900,7 +1819,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,8 +2112,8 @@
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
+      <c r="C12" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -2546,10 +2465,10 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:F12">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/15-Musica/Controle do projeto.xlsx
+++ b/15-Musica/Controle do projeto.xlsx
@@ -412,6 +412,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,14 +439,95 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -948,18 +1032,18 @@
       <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -990,20 +1074,20 @@
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -1014,7 +1098,7 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1718,90 +1802,90 @@
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J12 F6:G6 F8:G9 B6:D12 F11:G12 F6:F12">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E8:E9 E11:E12">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H9 H11:H12">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I8:I9 I11:I12">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1819,7 +1903,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,14 +1930,14 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -1882,18 +1966,18 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1905,7 +1989,7 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1939,7 +2023,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1968,7 +2052,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -1997,7 +2081,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -2026,7 +2110,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -2055,7 +2139,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -2084,7 +2168,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -2112,7 +2196,7 @@
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2465,10 +2549,10 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:F12">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/15-Musica/Controle do projeto.xlsx
+++ b/15-Musica/Controle do projeto.xlsx
@@ -443,91 +443,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -1802,90 +1718,90 @@
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J12 F6:G6 F8:G9 B6:D12 F11:G12 F6:F12">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E8:E9 E11:E12">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H9 H11:H12">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I8:I9 I11:I12">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1903,7 +1819,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2116,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -2549,10 +2465,10 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:F12">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/15-Musica/Controle do projeto.xlsx
+++ b/15-Musica/Controle do projeto.xlsx
@@ -443,7 +443,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1718,90 +1802,90 @@
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J12 F6:G6 F8:G9 B6:D12 F11:G12 F6:F12">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E8:E9 E11:E12">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H9 H11:H12">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I8:I9 I11:I12">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1819,7 +1903,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,7 +2026,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -1971,7 +2055,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -2000,7 +2084,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -2029,7 +2113,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -2058,7 +2142,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
@@ -2087,7 +2171,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -2465,10 +2549,10 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:F12">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/15-Musica/Controle do projeto.xlsx
+++ b/15-Musica/Controle do projeto.xlsx
@@ -443,77 +443,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -1802,90 +1732,90 @@
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J12 F6:G6 F8:G9 B6:D12 F11:G12 F6:F12">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E8:E9 E11:E12">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H9 H11:H12">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I8:I9 I11:I12">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1903,7 +1833,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,7 +2133,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
@@ -2549,10 +2479,10 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:F12">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/15-Musica/Controle do projeto.xlsx
+++ b/15-Musica/Controle do projeto.xlsx
@@ -443,7 +443,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1732,90 +1802,90 @@
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J12 F6:G6 F8:G9 B6:D12 F11:G12 F6:F12">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E8:E9 E11:E12">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H9 H11:H12">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I8:I9 I11:I12">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1833,7 +1903,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,7 +2029,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
@@ -1988,7 +2058,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
@@ -2017,7 +2087,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
@@ -2046,7 +2116,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
@@ -2075,7 +2145,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -2104,7 +2174,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
@@ -2479,10 +2549,10 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:F12">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
